--- a/vigil_cruda.xlsx
+++ b/vigil_cruda.xlsx
@@ -14,52 +14,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t xml:space="preserve">date</t>
+    <t xml:space="preserve">Fecha</t>
   </si>
   <si>
-    <t xml:space="preserve">hr</t>
+    <t xml:space="preserve">HR (%)</t>
   </si>
   <si>
-    <t xml:space="preserve">pm2.5</t>
+    <t xml:space="preserve">PM2.5 (ug/m3)</t>
   </si>
   <si>
-    <t xml:space="preserve">pm10</t>
+    <t xml:space="preserve">PM10 (ug/m3)</t>
   </si>
   <si>
-    <t xml:space="preserve">pres</t>
+    <t xml:space="preserve">Pres (mbar)</t>
   </si>
   <si>
-    <t xml:space="preserve">pp</t>
+    <t xml:space="preserve">precip (mm)</t>
   </si>
   <si>
-    <t xml:space="preserve">temp</t>
+    <t xml:space="preserve">Temp (°C)</t>
   </si>
   <si>
-    <t xml:space="preserve">wd</t>
+    <t xml:space="preserve">wd (°)</t>
   </si>
   <si>
-    <t xml:space="preserve">ws</t>
+    <t xml:space="preserve">ws (m/s)</t>
   </si>
   <si>
-    <t xml:space="preserve">rad</t>
+    <t xml:space="preserve">rad (kw/m2)</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
+    <t xml:space="preserve">no (ppb)</t>
   </si>
   <si>
-    <t xml:space="preserve">no2</t>
+    <t xml:space="preserve">no2 (ppb)</t>
   </si>
   <si>
-    <t xml:space="preserve">so2</t>
+    <t xml:space="preserve">so2 (ppb)</t>
   </si>
   <si>
-    <t xml:space="preserve">h2s</t>
+    <t xml:space="preserve">h2s (ppb)</t>
   </si>
   <si>
-    <t xml:space="preserve">co</t>
+    <t xml:space="preserve">co (ppb)</t>
   </si>
   <si>
-    <t xml:space="preserve">o3</t>
+    <t xml:space="preserve">o3 (ppb)</t>
   </si>
 </sst>
 </file>

--- a/vigil_cruda.xlsx
+++ b/vigil_cruda.xlsx
@@ -14,25 +14,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t xml:space="preserve">Fecha</t>
+    <t xml:space="preserve">fecha</t>
   </si>
   <si>
-    <t xml:space="preserve">HR (%)</t>
+    <t xml:space="preserve">hr(%)</t>
   </si>
   <si>
-    <t xml:space="preserve">PM2.5 (ug/m3)</t>
+    <t xml:space="preserve">pm2.5 (ug/m3)</t>
   </si>
   <si>
-    <t xml:space="preserve">PM10 (ug/m3)</t>
+    <t xml:space="preserve">pm10 (ug/m3)</t>
   </si>
   <si>
-    <t xml:space="preserve">Pres (mbar)</t>
+    <t xml:space="preserve">pres (mbar)</t>
   </si>
   <si>
-    <t xml:space="preserve">precip (mm)</t>
+    <t xml:space="preserve">pp (mm)</t>
   </si>
   <si>
-    <t xml:space="preserve">Temp (°C)</t>
+    <t xml:space="preserve">temp (°C)</t>
   </si>
   <si>
     <t xml:space="preserve">wd (°)</t>
